--- a/平成31年度/ウィザーズ/名前ラミネート2019.xlsx
+++ b/平成31年度/ウィザーズ/名前ラミネート2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\ウィザーズ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\ウィザーズ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +137,7 @@
         <xdr:cNvPr id="54" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -202,7 +198,7 @@
         <xdr:cNvPr id="3" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -263,7 +259,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,7 +345,7 @@
         <xdr:cNvPr id="12" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,7 +406,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,7 +489,7 @@
         <xdr:cNvPr id="21" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,7 +550,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -640,7 +636,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +737,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>655050</xdr:colOff>
+      <xdr:colOff>636000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>112998</xdr:rowOff>
     </xdr:to>
@@ -750,7 +746,7 @@
         <xdr:cNvPr id="24" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -773,8 +769,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2609850" y="5934075"/>
-          <a:ext cx="2160000" cy="2160873"/>
+          <a:off x="2466975" y="352425"/>
+          <a:ext cx="1998075" cy="2160873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,13 +792,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>37012</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>513262</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -811,7 +807,7 @@
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,8 +815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876550" y="1457326"/>
-          <a:ext cx="1676400" cy="714374"/>
+          <a:off x="2589712" y="1457326"/>
+          <a:ext cx="1752600" cy="714374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -897,7 +893,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1007,7 +1003,7 @@
         <xdr:cNvPr id="27" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,7 +1064,7 @@
         <xdr:cNvPr id="28" name="テキスト ボックス 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1150,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1260,7 @@
         <xdr:cNvPr id="30" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1321,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1407,7 @@
         <xdr:cNvPr id="32" name="テキスト ボックス 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1517,7 @@
         <xdr:cNvPr id="33" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1578,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1668,7 +1664,7 @@
         <xdr:cNvPr id="35" name="テキスト ボックス 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1774,7 @@
         <xdr:cNvPr id="36" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1835,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,7 +1921,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2031,7 @@
         <xdr:cNvPr id="39" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2092,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2178,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2288,7 @@
         <xdr:cNvPr id="42" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2353,7 +2349,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2435,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,7 +2545,7 @@
         <xdr:cNvPr id="45" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2606,7 @@
         <xdr:cNvPr id="46" name="テキスト ボックス 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2696,7 +2692,7 @@
         <xdr:cNvPr id="47" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2806,7 +2802,7 @@
         <xdr:cNvPr id="48" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2863,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2949,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3059,7 @@
         <xdr:cNvPr id="51" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,7 +3120,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3210,7 +3206,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3316,7 @@
         <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3399,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3513,7 +3509,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3592,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3675,7 @@
         <xdr:cNvPr id="63" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3736,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3826,7 +3822,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3936,7 +3932,7 @@
         <xdr:cNvPr id="67" name="テキスト ボックス 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4022,7 +4018,7 @@
         <xdr:cNvPr id="71" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4079,7 @@
         <xdr:cNvPr id="72" name="テキスト ボックス 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,7 +4189,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4279,7 +4275,7 @@
         <xdr:cNvPr id="77" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4302,8 +4298,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5257800" y="11649075"/>
-          <a:ext cx="2160000" cy="2160873"/>
+          <a:off x="4924425" y="11649075"/>
+          <a:ext cx="2017125" cy="2160873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4340,7 +4336,7 @@
         <xdr:cNvPr id="78" name="テキスト ボックス 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4434,14 +4430,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608512</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>408487</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4450,7 +4446,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,8 +4454,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="12592051"/>
-          <a:ext cx="1600200" cy="781049"/>
+          <a:off x="5075737" y="12592051"/>
+          <a:ext cx="1714500" cy="781049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4536,7 +4532,7 @@
         <xdr:cNvPr id="57" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4597,7 +4593,7 @@
         <xdr:cNvPr id="59" name="テキスト ボックス 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4676,7 @@
         <xdr:cNvPr id="60" name="テキスト ボックス 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4790,7 +4786,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4873,7 +4869,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4959,7 +4955,7 @@
         <xdr:cNvPr id="69" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5020,7 +5016,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5130,7 +5126,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5490,7 +5486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/平成31年度/ウィザーズ/名前ラミネート2019.xlsx
+++ b/平成31年度/ウィザーズ/名前ラミネート2019.xlsx
@@ -137,7 +137,7 @@
         <xdr:cNvPr id="54" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -198,7 +198,7 @@
         <xdr:cNvPr id="3" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -259,7 +259,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -345,7 +345,7 @@
         <xdr:cNvPr id="12" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -406,7 +406,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -489,7 +489,7 @@
         <xdr:cNvPr id="21" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +550,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,7 +636,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -746,7 +746,7 @@
         <xdr:cNvPr id="24" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -807,7 +807,7 @@
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,7 +1003,7 @@
         <xdr:cNvPr id="27" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,7 +1064,7 @@
         <xdr:cNvPr id="28" name="テキスト ボックス 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="30" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
         <xdr:cNvPr id="31" name="テキスト ボックス 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
         <xdr:cNvPr id="32" name="テキスト ボックス 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1517,7 @@
         <xdr:cNvPr id="33" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1578,7 +1578,7 @@
         <xdr:cNvPr id="34" name="テキスト ボックス 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1664,7 @@
         <xdr:cNvPr id="35" name="テキスト ボックス 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1774,7 @@
         <xdr:cNvPr id="36" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +1835,7 @@
         <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2031,7 +2031,7 @@
         <xdr:cNvPr id="39" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2178,7 @@
         <xdr:cNvPr id="41" name="テキスト ボックス 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2288,7 @@
         <xdr:cNvPr id="42" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,7 +2349,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2435,7 +2435,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2545,7 @@
         <xdr:cNvPr id="45" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2606,7 @@
         <xdr:cNvPr id="46" name="テキスト ボックス 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2692,7 @@
         <xdr:cNvPr id="47" name="テキスト ボックス 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00002F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2802,7 @@
         <xdr:cNvPr id="48" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2863,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2949,7 @@
         <xdr:cNvPr id="50" name="テキスト ボックス 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,7 +3059,7 @@
         <xdr:cNvPr id="51" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3120,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3206,7 @@
         <xdr:cNvPr id="53" name="テキスト ボックス 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3316,7 @@
         <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3399,7 +3399,7 @@
         <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,7 +3509,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3592,7 +3592,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +3675,7 @@
         <xdr:cNvPr id="63" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3736,7 +3736,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000040000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3822,7 +3822,7 @@
         <xdr:cNvPr id="65" name="テキスト ボックス 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000041000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3932,7 +3932,7 @@
         <xdr:cNvPr id="67" name="テキスト ボックス 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4018,7 +4018,7 @@
         <xdr:cNvPr id="71" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4079,7 +4079,7 @@
         <xdr:cNvPr id="72" name="テキスト ボックス 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,7 +4189,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +4275,7 @@
         <xdr:cNvPr id="77" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4336,7 +4336,7 @@
         <xdr:cNvPr id="78" name="テキスト ボックス 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4446,7 +4446,7 @@
         <xdr:cNvPr id="79" name="テキスト ボックス 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00004F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4507,7 +4507,7 @@
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>壮汰郎</a:t>
+            <a:t>壮汰朗</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4532,7 +4532,7 @@
         <xdr:cNvPr id="57" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000036000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4593,7 +4593,7 @@
         <xdr:cNvPr id="59" name="テキスト ボックス 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000037000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4676,7 +4676,7 @@
         <xdr:cNvPr id="60" name="テキスト ボックス 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000038000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4786,7 @@
         <xdr:cNvPr id="62" name="テキスト ボックス 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00003A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4869,7 +4869,7 @@
         <xdr:cNvPr id="68" name="テキスト ボックス 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000043000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4955,7 +4955,7 @@
         <xdr:cNvPr id="69" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000047000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +5016,7 @@
         <xdr:cNvPr id="70" name="テキスト ボックス 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000048000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5126,7 +5126,7 @@
         <xdr:cNvPr id="74" name="テキスト ボックス 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000049000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5486,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N86" sqref="N86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
